--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>Serie</t>
   </si>
@@ -467,6 +467,72 @@
   </si>
   <si>
     <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
   </si>
 </sst>
 </file>
@@ -824,7 +890,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E147"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2834,6 +2900,290 @@
         <v>4.41</v>
       </c>
     </row>
+    <row r="148" spans="1:5">
+      <c r="A148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C148">
+        <v>2.35</v>
+      </c>
+      <c r="D148">
+        <v>3.67</v>
+      </c>
+      <c r="E148">
+        <v>4.46</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" t="s">
+        <v>152</v>
+      </c>
+      <c r="C149">
+        <v>2.35</v>
+      </c>
+      <c r="D149">
+        <v>3.72</v>
+      </c>
+      <c r="E149">
+        <v>4.57</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" t="s">
+        <v>153</v>
+      </c>
+      <c r="C150">
+        <v>2.35</v>
+      </c>
+      <c r="D150">
+        <v>3.78</v>
+      </c>
+      <c r="E150">
+        <v>4.64</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151">
+        <v>3.85</v>
+      </c>
+      <c r="E151">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" t="s">
+        <v>155</v>
+      </c>
+      <c r="C152">
+        <v>2.32</v>
+      </c>
+      <c r="D152">
+        <v>3.9</v>
+      </c>
+      <c r="E152">
+        <v>4.67</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" t="s">
+        <v>156</v>
+      </c>
+      <c r="C153">
+        <v>2.55</v>
+      </c>
+      <c r="D153">
+        <v>3.99</v>
+      </c>
+      <c r="E153">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" t="s">
+        <v>157</v>
+      </c>
+      <c r="C154">
+        <v>2.73</v>
+      </c>
+      <c r="D154">
+        <v>4</v>
+      </c>
+      <c r="E154">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155">
+        <v>4</v>
+      </c>
+      <c r="E155">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" t="s">
+        <v>159</v>
+      </c>
+      <c r="C156">
+        <v>2.77</v>
+      </c>
+      <c r="D156">
+        <v>3.97</v>
+      </c>
+      <c r="E156">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157">
+        <v>3.91</v>
+      </c>
+      <c r="E157">
+        <v>4.73</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" t="s">
+        <v>161</v>
+      </c>
+      <c r="C158">
+        <v>2.8</v>
+      </c>
+      <c r="D158">
+        <v>3.95</v>
+      </c>
+      <c r="E158">
+        <v>4.77</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" t="s">
+        <v>162</v>
+      </c>
+      <c r="C159">
+        <v>2.86</v>
+      </c>
+      <c r="D159">
+        <v>3.98</v>
+      </c>
+      <c r="E159">
+        <v>4.85</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" t="s">
+        <v>163</v>
+      </c>
+      <c r="C160">
+        <v>2.9</v>
+      </c>
+      <c r="D160">
+        <v>4.01</v>
+      </c>
+      <c r="E160">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" t="s">
+        <v>164</v>
+      </c>
+      <c r="C161">
+        <v>2.92</v>
+      </c>
+      <c r="D161">
+        <v>4.02</v>
+      </c>
+      <c r="E161">
+        <v>4.89</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" t="s">
+        <v>165</v>
+      </c>
+      <c r="D162">
+        <v>4.02</v>
+      </c>
+      <c r="E162">
+        <v>4.86</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163">
+        <v>3.99</v>
+      </c>
+      <c r="E163">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164">
+        <v>3.94</v>
+      </c>
+      <c r="E164">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5">
+      <c r="A165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165">
+        <v>3.94</v>
+      </c>
+      <c r="E165">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5">
+      <c r="A166" t="s">
+        <v>169</v>
+      </c>
+      <c r="C166">
+        <v>3.01</v>
+      </c>
+      <c r="E166">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" t="s">
+        <v>170</v>
+      </c>
+      <c r="C167">
+        <v>3.01</v>
+      </c>
+      <c r="D167">
+        <v>3.97</v>
+      </c>
+      <c r="E167">
+        <v>4.74</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="C168">
+        <v>3.67</v>
+      </c>
+      <c r="D168">
+        <v>4.4</v>
+      </c>
+      <c r="E168">
+        <v>4.98</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" t="s">
+        <v>172</v>
+      </c>
+      <c r="C169">
+        <v>3.82</v>
+      </c>
+      <c r="D169">
+        <v>4.41</v>
+      </c>
+      <c r="E169">
+        <v>5.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
   <si>
     <t>Serie</t>
   </si>
@@ -533,6 +533,9 @@
   </si>
   <si>
     <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E169"/>
+  <dimension ref="A1:E170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3184,6 +3187,20 @@
         <v>5.09</v>
       </c>
     </row>
+    <row r="170" spans="1:5">
+      <c r="A170" t="s">
+        <v>173</v>
+      </c>
+      <c r="C170">
+        <v>3.79</v>
+      </c>
+      <c r="D170">
+        <v>4.4</v>
+      </c>
+      <c r="E170">
+        <v>5.05</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>Serie</t>
   </si>
@@ -536,6 +536,9 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -893,7 +896,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3201,6 +3204,14 @@
         <v>5.05</v>
       </c>
     </row>
+    <row r="171" spans="1:5">
+      <c r="A171" t="s">
+        <v>174</v>
+      </c>
+      <c r="C171">
+        <v>3.8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Serie</t>
   </si>
@@ -539,6 +539,9 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -896,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3212,6 +3215,14 @@
         <v>3.8</v>
       </c>
     </row>
+    <row r="172" spans="1:5">
+      <c r="A172" t="s">
+        <v>175</v>
+      </c>
+      <c r="E172">
+        <v>5.12</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t>Serie</t>
   </si>
@@ -542,6 +542,18 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
   </si>
 </sst>
 </file>
@@ -899,7 +911,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E172"/>
+  <dimension ref="A1:E176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3223,6 +3235,56 @@
         <v>5.12</v>
       </c>
     </row>
+    <row r="173" spans="1:5">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+      <c r="C173">
+        <v>4</v>
+      </c>
+      <c r="D173">
+        <v>4.8</v>
+      </c>
+      <c r="E173">
+        <v>5.28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5">
+      <c r="A174" t="s">
+        <v>177</v>
+      </c>
+      <c r="C174">
+        <v>4.15</v>
+      </c>
+      <c r="D174">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175">
+        <v>4.95</v>
+      </c>
+      <c r="E175">
+        <v>5.41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5">
+      <c r="A176" t="s">
+        <v>179</v>
+      </c>
+      <c r="C176">
+        <v>3.83</v>
+      </c>
+      <c r="D176">
+        <v>4.88</v>
+      </c>
+      <c r="E176">
+        <v>5.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>Serie</t>
   </si>
@@ -554,6 +554,9 @@
   </si>
   <si>
     <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E176"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3285,6 +3288,20 @@
         <v>5.26</v>
       </c>
     </row>
+    <row r="177" spans="1:5">
+      <c r="A177" t="s">
+        <v>180</v>
+      </c>
+      <c r="C177">
+        <v>3.8</v>
+      </c>
+      <c r="D177">
+        <v>4.82</v>
+      </c>
+      <c r="E177">
+        <v>5.1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>Serie</t>
   </si>
@@ -557,6 +557,33 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
   </si>
 </sst>
 </file>
@@ -914,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3302,6 +3329,120 @@
         <v>5.1</v>
       </c>
     </row>
+    <row r="178" spans="1:5">
+      <c r="A178" t="s">
+        <v>181</v>
+      </c>
+      <c r="C178">
+        <v>3.8</v>
+      </c>
+      <c r="E178">
+        <v>5.17</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5">
+      <c r="A179" t="s">
+        <v>182</v>
+      </c>
+      <c r="C179">
+        <v>3.85</v>
+      </c>
+      <c r="D179">
+        <v>4.73</v>
+      </c>
+      <c r="E179">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5">
+      <c r="A180" t="s">
+        <v>183</v>
+      </c>
+      <c r="C180">
+        <v>3.8</v>
+      </c>
+      <c r="E180">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5">
+      <c r="A181" t="s">
+        <v>184</v>
+      </c>
+      <c r="E181">
+        <v>5.02</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5">
+      <c r="A182" t="s">
+        <v>185</v>
+      </c>
+      <c r="C182">
+        <v>4</v>
+      </c>
+      <c r="D182">
+        <v>4.7</v>
+      </c>
+      <c r="E182">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" t="s">
+        <v>186</v>
+      </c>
+      <c r="C183">
+        <v>4.07</v>
+      </c>
+      <c r="D183">
+        <v>4.85</v>
+      </c>
+      <c r="E183">
+        <v>5.24</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5">
+      <c r="A184" t="s">
+        <v>187</v>
+      </c>
+      <c r="C184">
+        <v>4.1</v>
+      </c>
+      <c r="D184">
+        <v>5</v>
+      </c>
+      <c r="E184">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5">
+      <c r="A185" t="s">
+        <v>188</v>
+      </c>
+      <c r="C185">
+        <v>4.1</v>
+      </c>
+      <c r="D185">
+        <v>5.1</v>
+      </c>
+      <c r="E185">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5">
+      <c r="A186" t="s">
+        <v>189</v>
+      </c>
+      <c r="C186">
+        <v>4.4</v>
+      </c>
+      <c r="D186">
+        <v>5.18</v>
+      </c>
+      <c r="E186">
+        <v>5.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>Serie</t>
   </si>
@@ -584,6 +584,12 @@
   </si>
   <si>
     <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -941,7 +947,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E186"/>
+  <dimension ref="A1:E188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3443,6 +3449,31 @@
         <v>5.56</v>
       </c>
     </row>
+    <row r="187" spans="1:5">
+      <c r="A187" t="s">
+        <v>190</v>
+      </c>
+      <c r="C187">
+        <v>4.42</v>
+      </c>
+      <c r="D187">
+        <v>5.18</v>
+      </c>
+      <c r="E187">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5">
+      <c r="A188" t="s">
+        <v>191</v>
+      </c>
+      <c r="C188">
+        <v>4.42</v>
+      </c>
+      <c r="E188">
+        <v>5.7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>Serie</t>
   </si>
@@ -590,6 +590,12 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
   </si>
 </sst>
 </file>
@@ -947,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E188"/>
+  <dimension ref="A1:E190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3474,6 +3480,31 @@
         <v>5.7</v>
       </c>
     </row>
+    <row r="189" spans="1:5">
+      <c r="A189" t="s">
+        <v>192</v>
+      </c>
+      <c r="C189">
+        <v>4.42</v>
+      </c>
+      <c r="E189">
+        <v>5.82</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5">
+      <c r="A190" t="s">
+        <v>193</v>
+      </c>
+      <c r="C190">
+        <v>4.51</v>
+      </c>
+      <c r="D190">
+        <v>5.45</v>
+      </c>
+      <c r="E190">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>Serie</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -953,7 +959,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E190"/>
+  <dimension ref="A1:E192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3505,6 +3511,28 @@
         <v>6</v>
       </c>
     </row>
+    <row r="191" spans="1:5">
+      <c r="A191" t="s">
+        <v>194</v>
+      </c>
+      <c r="E191">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5">
+      <c r="A192" t="s">
+        <v>195</v>
+      </c>
+      <c r="C192">
+        <v>4.51</v>
+      </c>
+      <c r="D192">
+        <v>5.9</v>
+      </c>
+      <c r="E192">
+        <v>6.42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>Serie</t>
   </si>
@@ -602,6 +602,18 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -959,7 +971,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E192"/>
+  <dimension ref="A1:E196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3533,6 +3545,56 @@
         <v>6.42</v>
       </c>
     </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>196</v>
+      </c>
+      <c r="D193">
+        <v>6.11</v>
+      </c>
+      <c r="E193">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5">
+      <c r="A194" t="s">
+        <v>197</v>
+      </c>
+      <c r="D194">
+        <v>6.36</v>
+      </c>
+      <c r="E194">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+      <c r="C195">
+        <v>5</v>
+      </c>
+      <c r="D195">
+        <v>6.38</v>
+      </c>
+      <c r="E195">
+        <v>6.86</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" t="s">
+        <v>199</v>
+      </c>
+      <c r="C196">
+        <v>5</v>
+      </c>
+      <c r="D196">
+        <v>6.15</v>
+      </c>
+      <c r="E196">
+        <v>6.6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>Serie</t>
   </si>
@@ -614,6 +614,36 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
   </si>
 </sst>
 </file>
@@ -971,7 +1001,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E196"/>
+  <dimension ref="A1:E206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3595,6 +3625,131 @@
         <v>6.6</v>
       </c>
     </row>
+    <row r="197" spans="1:5">
+      <c r="A197" t="s">
+        <v>200</v>
+      </c>
+      <c r="C197">
+        <v>5</v>
+      </c>
+      <c r="D197">
+        <v>5.93</v>
+      </c>
+      <c r="E197">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5">
+      <c r="A198" t="s">
+        <v>201</v>
+      </c>
+      <c r="E198">
+        <v>6.48</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5">
+      <c r="A199" t="s">
+        <v>202</v>
+      </c>
+      <c r="C199">
+        <v>5</v>
+      </c>
+      <c r="D199">
+        <v>6.05</v>
+      </c>
+      <c r="E199">
+        <v>6.45</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5">
+      <c r="A200" t="s">
+        <v>203</v>
+      </c>
+      <c r="C200">
+        <v>5.01</v>
+      </c>
+      <c r="D200">
+        <v>5.99</v>
+      </c>
+      <c r="E200">
+        <v>6.41</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5">
+      <c r="A201" t="s">
+        <v>204</v>
+      </c>
+      <c r="D201">
+        <v>6.1</v>
+      </c>
+      <c r="E201">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="A202" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202">
+        <v>5</v>
+      </c>
+      <c r="D202">
+        <v>6.14</v>
+      </c>
+      <c r="E202">
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5">
+      <c r="A203" t="s">
+        <v>206</v>
+      </c>
+      <c r="C203">
+        <v>5</v>
+      </c>
+      <c r="D203">
+        <v>5.86</v>
+      </c>
+      <c r="E203">
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5">
+      <c r="A204" t="s">
+        <v>207</v>
+      </c>
+      <c r="D204">
+        <v>5.78</v>
+      </c>
+      <c r="E204">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5">
+      <c r="A205" t="s">
+        <v>208</v>
+      </c>
+      <c r="D205">
+        <v>5.77</v>
+      </c>
+      <c r="E205">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5">
+      <c r="A206" t="s">
+        <v>209</v>
+      </c>
+      <c r="C206">
+        <v>5.13</v>
+      </c>
+      <c r="D206">
+        <v>5.74</v>
+      </c>
+      <c r="E206">
+        <v>6.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
   <si>
     <t>Serie</t>
   </si>
@@ -644,6 +644,12 @@
   </si>
   <si>
     <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1007,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E206"/>
+  <dimension ref="A1:E208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3750,6 +3756,28 @@
         <v>6.09</v>
       </c>
     </row>
+    <row r="207" spans="1:5">
+      <c r="A207" t="s">
+        <v>210</v>
+      </c>
+      <c r="D207">
+        <v>5.77</v>
+      </c>
+      <c r="E207">
+        <v>6.09</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5">
+      <c r="A208" t="s">
+        <v>211</v>
+      </c>
+      <c r="D208">
+        <v>5.73</v>
+      </c>
+      <c r="E208">
+        <v>5.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1007,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E208"/>
+  <dimension ref="A1:E209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3778,6 +3781,20 @@
         <v>5.99</v>
       </c>
     </row>
+    <row r="209" spans="1:5">
+      <c r="A209" t="s">
+        <v>212</v>
+      </c>
+      <c r="C209">
+        <v>5.05</v>
+      </c>
+      <c r="D209">
+        <v>5.74</v>
+      </c>
+      <c r="E209">
+        <v>5.99</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1013,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E209"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3795,6 +3798,17 @@
         <v>5.99</v>
       </c>
     </row>
+    <row r="210" spans="1:5">
+      <c r="A210" t="s">
+        <v>213</v>
+      </c>
+      <c r="D210">
+        <v>5.74</v>
+      </c>
+      <c r="E210">
+        <v>6.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -656,6 +656,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3809,6 +3812,20 @@
         <v>6.07</v>
       </c>
     </row>
+    <row r="211" spans="1:5">
+      <c r="A211" t="s">
+        <v>214</v>
+      </c>
+      <c r="C211">
+        <v>5.3</v>
+      </c>
+      <c r="D211">
+        <v>5.79</v>
+      </c>
+      <c r="E211">
+        <v>6.06</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3/3/1/En $ 2021 - Diaria.xlsx
+++ b/3/3/1/En $ 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Serie</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E211"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3826,6 +3829,17 @@
         <v>6.06</v>
       </c>
     </row>
+    <row r="212" spans="1:5">
+      <c r="A212" t="s">
+        <v>215</v>
+      </c>
+      <c r="D212">
+        <v>5.85</v>
+      </c>
+      <c r="E212">
+        <v>6.07</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
